--- a/Projects/Wireless_Charging/Wireless_Charging-Calculations-X01.xlsx
+++ b/Projects/Wireless_Charging/Wireless_Charging-Calculations-X01.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carld\Documents\GitHub\GT-BITNG\Projects\Development_Board\Electronics\DB\DB-X02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carld\Documents\GitHub\GT-BITNG\Projects\Wireless_Charging\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{659413B3-6822-468C-A540-861EFE0C9C4B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0139BB-0CE2-4E9B-9B35-CCC130F0C63B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2CFCA7FC-FEC4-4172-80EE-2DB86B4F0902}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Wireless_Charging" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,13 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>fd</t>
-  </si>
-  <si>
-    <t>fs</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>Q</t>
   </si>
@@ -49,9 +42,6 @@
     <t>R (ohm)</t>
   </si>
   <si>
-    <t>Ls' (H)</t>
-  </si>
-  <si>
     <t>Ls (H)</t>
   </si>
   <si>
@@ -61,16 +51,52 @@
     <t>WR222230-26M8-G</t>
   </si>
   <si>
-    <t>Example</t>
-  </si>
-  <si>
     <t>WR121210-27M8-ID</t>
   </si>
   <si>
-    <t>C1 (F)</t>
-  </si>
-  <si>
-    <t>C2 (F)</t>
+    <t>760308101219</t>
+  </si>
+  <si>
+    <t>760308101104</t>
+  </si>
+  <si>
+    <t>760308101220</t>
+  </si>
+  <si>
+    <t>C1 (nF)</t>
+  </si>
+  <si>
+    <t>C2 (nF)</t>
+  </si>
+  <si>
+    <t>Coil Type</t>
+  </si>
+  <si>
+    <t>Model Number</t>
+  </si>
+  <si>
+    <t>RX</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>fs (Hz)</t>
+  </si>
+  <si>
+    <t>fd (Hz)</t>
+  </si>
+  <si>
+    <t>Diameter (mm)</t>
+  </si>
+  <si>
+    <t>Thickness (mm)</t>
+  </si>
+  <si>
+    <t>760308101216</t>
+  </si>
+  <si>
+    <t>760308101208</t>
   </si>
 </sst>
 </file>
@@ -106,9 +132,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -425,234 +460,335 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C20168BB-DBC7-48D8-9068-84DBFC8B6376}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1">
+        <v>22</v>
+      </c>
+      <c r="C3" s="1">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2">
+        <v>15</v>
+      </c>
+      <c r="F3" s="3">
+        <v>17</v>
+      </c>
+      <c r="G3" s="3">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="1">
-        <v>760308101219</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1">
+      <c r="H3" s="3">
+        <v>10</v>
+      </c>
+      <c r="I3" s="3">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1.72</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.82</v>
+      </c>
+      <c r="G4" s="3">
+        <v>2</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="I4" s="3">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
         <f>0.000027</f>
         <v>2.6999999999999999E-5</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C5" s="1">
         <f>0.0000318</f>
         <v>3.18E-5</v>
       </c>
-      <c r="D2" s="1">
-        <f>0.000011</f>
-        <v>1.1E-5</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="D5" s="1">
         <f>0.00000832</f>
         <v>8.32E-6</v>
       </c>
-      <c r="F2" s="1">
+      <c r="E5" s="1">
         <f>0.0000118</f>
         <v>1.1800000000000001E-5</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1">
-        <f>B2+0.000005</f>
-        <v>3.1999999999999999E-5</v>
-      </c>
-      <c r="C3" s="1">
-        <f>C2+0.000005</f>
-        <v>3.68E-5</v>
-      </c>
-      <c r="D3" s="1">
-        <f>D2+0.000005</f>
-        <v>1.5999999999999999E-5</v>
-      </c>
-      <c r="E3" s="1">
-        <f>E2+0.000005</f>
-        <v>1.3320000000000001E-5</v>
-      </c>
-      <c r="F3" s="1">
-        <f>F2+0.000005</f>
-        <v>1.6800000000000002E-5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
+      <c r="F5" s="4">
+        <v>1.26E-5</v>
+      </c>
+      <c r="G5" s="4">
+        <v>7.1999999999999997E-6</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1.2999999999999999E-5</v>
+      </c>
+      <c r="I5" s="4">
+        <v>6.2999999999999998E-6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C6" s="1">
         <v>1.34</v>
       </c>
-      <c r="D4" s="1">
-        <v>0.191</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="D6" s="1">
         <v>0.95</v>
       </c>
-      <c r="F4" s="1">
+      <c r="E6" s="1">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="F6" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1">
+        <f>((($B$11*2*PI())^2*B5)^-1)*1000000000</f>
+        <v>23.453977694985603</v>
+      </c>
+      <c r="C7" s="1">
+        <f>((($B$11*2*PI())^2*C5)^-1)*1000000000</f>
+        <v>19.913754646685888</v>
+      </c>
+      <c r="D7" s="1">
+        <f>((($B$11*2*PI())^2*D5)^-1)*1000000000</f>
+        <v>76.112668000554223</v>
+      </c>
+      <c r="E7" s="1">
+        <f>((($B$11*2*PI())^2*E5)^-1)*1000000000</f>
+        <v>53.665881166492468</v>
+      </c>
+      <c r="F7" s="1">
+        <f>((($B$11*2*PI())^2*F5)^-1)*1000000000</f>
+        <v>50.258523632112002</v>
+      </c>
+      <c r="G7" s="1">
+        <f>((($B$11*2*PI())^2*G5)^-1)*1000000000</f>
+        <v>87.952416356196011</v>
+      </c>
+      <c r="H7" s="1">
+        <f>((($B$11*2*PI())^2*H5)^-1)*1000000000</f>
+        <v>48.712107520354714</v>
+      </c>
+      <c r="I7" s="1">
+        <f>((($B$11*2*PI())^2*I5)^-1)*1000000000</f>
+        <v>100.517047264224</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1">
-        <f>(($B$9*2*PI())^2*B3)^-1</f>
-        <v>7.9157174720576389E-8</v>
-      </c>
-      <c r="C5" s="1">
-        <f>(($B$9*2*PI())^2*C3)^-1</f>
-        <v>6.8832325843979478E-8</v>
-      </c>
-      <c r="D5" s="1">
-        <f>(($B$9*2*PI())^2*D3)^-1</f>
-        <v>1.5831434944115278E-7</v>
-      </c>
-      <c r="E5" s="1">
-        <f>(($B$9*2*PI())^2*E3)^-1</f>
-        <v>1.9016738671609945E-7</v>
-      </c>
-      <c r="F5" s="1">
-        <f>(($B$9*2*PI())^2*F3)^-1</f>
-        <v>1.5077557089633598E-7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="1">
-        <f>(($B$10*2*PI())^2*B2-1/B5)^-1</f>
-        <v>9.4941139095144105E-10</v>
-      </c>
-      <c r="C6" s="1">
-        <f>(($B$10*2*PI())^2*C2-1/C5)^-1</f>
-        <v>8.0587604704073705E-10</v>
-      </c>
-      <c r="D6" s="1">
-        <f>(($B$10*2*PI())^2*D2-1/D5)^-1</f>
-        <v>2.3367431651830669E-9</v>
-      </c>
-      <c r="E6" s="1">
-        <f>(($B$10*2*PI())^2*E2-1/E5)^-1</f>
-        <v>3.0940411284732066E-9</v>
-      </c>
-      <c r="F6" s="1">
-        <f>(($B$10*2*PI())^2*F2-1/F5)^-1</f>
-        <v>2.1776389194106294E-9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="1">
-        <f>(2*PI()*$B$10*B2/B4)</f>
-        <v>154.22363935804438</v>
-      </c>
-      <c r="C7" s="1">
-        <f>(2*PI()*$B$10*C2/C4)</f>
-        <v>149.10842743903794</v>
-      </c>
-      <c r="D7" s="1">
-        <f>(2*PI()*$B$10*D2/D4)</f>
-        <v>361.85883968049967</v>
-      </c>
-      <c r="E7" s="1">
-        <f>(2*PI()*$B$10*E2/E4)</f>
-        <v>55.027475532351744</v>
-      </c>
-      <c r="F7" s="1">
-        <f>(2*PI()*$B$10*F2/F4)</f>
-        <v>98.855448832958828</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="1">
+        <f>(($B$12*2*PI())^2*B5-1/B7)^-1</f>
+        <v>9.3815910783695037E-10</v>
+      </c>
+      <c r="C8" s="1">
+        <f>(($B$12*2*PI())^2*C5-1/C7)^-1</f>
+        <v>7.9655018589929732E-10</v>
+      </c>
+      <c r="D8" s="1">
+        <f>(($B$12*2*PI())^2*D5-1/D7)^-1</f>
+        <v>3.0445067201439494E-9</v>
+      </c>
+      <c r="E8" s="1">
+        <f>(($B$12*2*PI())^2*E5-1/E7)^-1</f>
+        <v>2.1466352467455643E-9</v>
+      </c>
+      <c r="F8" s="1">
+        <f>(($B$12*2*PI())^2*F5-1/F7)^-1</f>
+        <v>2.0103409453648932E-9</v>
+      </c>
+      <c r="G8" s="1">
+        <f>(($B$12*2*PI())^2*G5-1/G7)^-1</f>
+        <v>3.5180966543885636E-9</v>
+      </c>
+      <c r="H8" s="1">
+        <f>(($B$12*2*PI())^2*H5-1/H7)^-1</f>
+        <v>1.9484843008921279E-9</v>
+      </c>
+      <c r="I8" s="1">
+        <f>(($B$12*2*PI())^2*I5-1/I7)^-1</f>
+        <v>4.0206818907297865E-9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9" s="1">
-        <f>100000</f>
-        <v>100000</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="1">
+        <f>(2*PI()*$B$11*B5/B6)</f>
+        <v>30.844727871608868</v>
+      </c>
+      <c r="C9" s="1">
+        <f>(2*PI()*$B$11*C5/C6)</f>
+        <v>29.821685487807581</v>
+      </c>
+      <c r="D9" s="1">
+        <f>(2*PI()*$B$11*D5/D6)</f>
+        <v>11.005495106470349</v>
+      </c>
+      <c r="E9" s="1">
+        <f>(2*PI()*$B$11*E5/E6)</f>
+        <v>19.771089766591764</v>
+      </c>
+      <c r="F9" s="1">
+        <f>(2*PI()*$B$11*F5/F6)</f>
+        <v>46.569491100272224</v>
+      </c>
+      <c r="G9" s="1">
+        <f>(2*PI()*$B$11*G5/G6)</f>
+        <v>20.563151914405914</v>
+      </c>
+      <c r="H9" s="1">
+        <f>(2*PI()*$B$11*H5/H6)</f>
+        <v>40.8407044966673</v>
+      </c>
+      <c r="I9" s="1">
+        <f>(2*PI()*$B$11*I5/I6)</f>
+        <v>63.334507896370226</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="1">
         <f>1000000</f>
         <v>1000000</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C17" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8069A543-21D5-45EA-AC9D-2143792F88CB}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Projects/Wireless_Charging/Wireless_Charging-Calculations-X01.xlsx
+++ b/Projects/Wireless_Charging/Wireless_Charging-Calculations-X01.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carld\Documents\GitHub\GT-BITNG\Projects\Wireless_Charging\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0139BB-0CE2-4E9B-9B35-CCC130F0C63B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E930B692-5E1B-49A0-A127-44DD4D15AAB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2CFCA7FC-FEC4-4172-80EE-2DB86B4F0902}"/>
   </bookViews>
@@ -463,7 +463,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -661,15 +661,15 @@
         <v>9</v>
       </c>
       <c r="B7" s="1">
-        <f>((($B$11*2*PI())^2*B5)^-1)*1000000000</f>
+        <f t="shared" ref="B7:I7" si="0">((($B$11*2*PI())^2*B5)^-1)*1000000000</f>
         <v>23.453977694985603</v>
       </c>
       <c r="C7" s="1">
-        <f>((($B$11*2*PI())^2*C5)^-1)*1000000000</f>
+        <f t="shared" si="0"/>
         <v>19.913754646685888</v>
       </c>
       <c r="D7" s="1">
-        <f>((($B$11*2*PI())^2*D5)^-1)*1000000000</f>
+        <f t="shared" si="0"/>
         <v>76.112668000554223</v>
       </c>
       <c r="E7" s="1">
@@ -677,19 +677,19 @@
         <v>53.665881166492468</v>
       </c>
       <c r="F7" s="1">
-        <f>((($B$11*2*PI())^2*F5)^-1)*1000000000</f>
+        <f t="shared" si="0"/>
         <v>50.258523632112002</v>
       </c>
       <c r="G7" s="1">
-        <f>((($B$11*2*PI())^2*G5)^-1)*1000000000</f>
+        <f t="shared" si="0"/>
         <v>87.952416356196011</v>
       </c>
       <c r="H7" s="1">
-        <f>((($B$11*2*PI())^2*H5)^-1)*1000000000</f>
+        <f t="shared" si="0"/>
         <v>48.712107520354714</v>
       </c>
       <c r="I7" s="1">
-        <f>((($B$11*2*PI())^2*I5)^-1)*1000000000</f>
+        <f t="shared" si="0"/>
         <v>100.517047264224</v>
       </c>
     </row>
@@ -698,35 +698,35 @@
         <v>10</v>
       </c>
       <c r="B8" s="1">
-        <f>(($B$12*2*PI())^2*B5-1/B7)^-1</f>
+        <f t="shared" ref="B8:I8" si="1">(($B$12*2*PI())^2*B5-1/B7)^-1</f>
         <v>9.3815910783695037E-10</v>
       </c>
       <c r="C8" s="1">
-        <f>(($B$12*2*PI())^2*C5-1/C7)^-1</f>
+        <f t="shared" si="1"/>
         <v>7.9655018589929732E-10</v>
       </c>
       <c r="D8" s="1">
-        <f>(($B$12*2*PI())^2*D5-1/D7)^-1</f>
+        <f t="shared" si="1"/>
         <v>3.0445067201439494E-9</v>
       </c>
       <c r="E8" s="1">
-        <f>(($B$12*2*PI())^2*E5-1/E7)^-1</f>
+        <f t="shared" si="1"/>
         <v>2.1466352467455643E-9</v>
       </c>
       <c r="F8" s="1">
-        <f>(($B$12*2*PI())^2*F5-1/F7)^-1</f>
+        <f t="shared" si="1"/>
         <v>2.0103409453648932E-9</v>
       </c>
       <c r="G8" s="1">
-        <f>(($B$12*2*PI())^2*G5-1/G7)^-1</f>
+        <f t="shared" si="1"/>
         <v>3.5180966543885636E-9</v>
       </c>
       <c r="H8" s="1">
-        <f>(($B$12*2*PI())^2*H5-1/H7)^-1</f>
+        <f t="shared" si="1"/>
         <v>1.9484843008921279E-9</v>
       </c>
       <c r="I8" s="1">
-        <f>(($B$12*2*PI())^2*I5-1/I7)^-1</f>
+        <f t="shared" si="1"/>
         <v>4.0206818907297865E-9</v>
       </c>
     </row>
@@ -735,35 +735,35 @@
         <v>0</v>
       </c>
       <c r="B9" s="1">
-        <f>(2*PI()*$B$11*B5/B6)</f>
+        <f t="shared" ref="B9:I9" si="2">(2*PI()*$B$11*B5/B6)</f>
         <v>30.844727871608868</v>
       </c>
       <c r="C9" s="1">
-        <f>(2*PI()*$B$11*C5/C6)</f>
+        <f t="shared" si="2"/>
         <v>29.821685487807581</v>
       </c>
       <c r="D9" s="1">
-        <f>(2*PI()*$B$11*D5/D6)</f>
+        <f t="shared" si="2"/>
         <v>11.005495106470349</v>
       </c>
       <c r="E9" s="1">
-        <f>(2*PI()*$B$11*E5/E6)</f>
+        <f t="shared" si="2"/>
         <v>19.771089766591764</v>
       </c>
       <c r="F9" s="1">
-        <f>(2*PI()*$B$11*F5/F6)</f>
+        <f t="shared" si="2"/>
         <v>46.569491100272224</v>
       </c>
       <c r="G9" s="1">
-        <f>(2*PI()*$B$11*G5/G6)</f>
+        <f t="shared" si="2"/>
         <v>20.563151914405914</v>
       </c>
       <c r="H9" s="1">
-        <f>(2*PI()*$B$11*H5/H6)</f>
+        <f t="shared" si="2"/>
         <v>40.8407044966673</v>
       </c>
       <c r="I9" s="1">
-        <f>(2*PI()*$B$11*I5/I6)</f>
+        <f t="shared" si="2"/>
         <v>63.334507896370226</v>
       </c>
     </row>
@@ -774,6 +774,10 @@
       <c r="B11" s="1">
         <v>200000</v>
       </c>
+      <c r="C11" s="1">
+        <f>1/(2*PI()*SQRT(0.000000047*0.00001215))</f>
+        <v>210611.97644978843</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
@@ -782,6 +786,22 @@
       <c r="B12" s="1">
         <f>1000000</f>
         <v>1000000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D13" s="1">
+        <f>100/1.29</f>
+        <v>77.519379844961236</v>
+      </c>
+      <c r="E13" s="1">
+        <f>1/(2*PI()*SQRT(0.0000126*0.000000047))</f>
+        <v>206816.85521687404</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E14" s="1">
+        <f>1/(2*PI()*SQRT(0.0000072*0.0000000033))</f>
+        <v>1032516.2929593984</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.3">
